--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf9</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Fgf9</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H2">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>7.412056761870446</v>
+        <v>5.004695999468667</v>
       </c>
       <c r="R2">
-        <v>66.70851085683401</v>
+        <v>45.042263995218</v>
       </c>
       <c r="S2">
-        <v>0.8230220494503587</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="T2">
-        <v>0.8230220494503586</v>
+        <v>0.78434648953826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H3">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.9602516136764445</v>
+        <v>0.7360927902906665</v>
       </c>
       <c r="R3">
-        <v>8.642264523088</v>
+        <v>6.624835112616</v>
       </c>
       <c r="S3">
-        <v>0.1066246895384765</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="T3">
-        <v>0.1066246895384765</v>
+        <v>0.1153620112191036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H4">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.607650713273778</v>
+        <v>0.518979485759</v>
       </c>
       <c r="R4">
-        <v>5.468856419464002</v>
+        <v>4.670815371831001</v>
       </c>
       <c r="S4">
-        <v>0.06747249130109918</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="T4">
-        <v>0.06747249130109918</v>
+        <v>0.08133555721279762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.083607</v>
+      </c>
+      <c r="H5">
+        <v>3.250821</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.004084</v>
-      </c>
-      <c r="H5">
-        <v>0.012252</v>
-      </c>
-      <c r="I5">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J5">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>0.02141411775066667</v>
+        <v>0.1209525745423333</v>
       </c>
       <c r="R5">
-        <v>0.192727059756</v>
+        <v>1.088573170881</v>
       </c>
       <c r="S5">
-        <v>0.002377786847098762</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="T5">
-        <v>0.002377786847098762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.004084</v>
-      </c>
-      <c r="H6">
-        <v>0.012252</v>
-      </c>
-      <c r="I6">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J6">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.6792986666666666</v>
-      </c>
-      <c r="N6">
-        <v>2.037896</v>
-      </c>
-      <c r="O6">
-        <v>0.1069327381315001</v>
-      </c>
-      <c r="P6">
-        <v>0.1069327381315001</v>
-      </c>
-      <c r="Q6">
-        <v>0.002774255754666666</v>
-      </c>
-      <c r="R6">
-        <v>0.024968301792</v>
-      </c>
-      <c r="S6">
-        <v>0.0003080485930235946</v>
-      </c>
-      <c r="T6">
-        <v>0.0003080485930235946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.004084</v>
-      </c>
-      <c r="H7">
-        <v>0.012252</v>
-      </c>
-      <c r="I7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.289588</v>
-      </c>
-      <c r="O7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q7">
-        <v>0.001755559130666667</v>
-      </c>
-      <c r="R7">
-        <v>0.015800032176</v>
-      </c>
-      <c r="S7">
-        <v>0.0001949342699431725</v>
-      </c>
-      <c r="T7">
-        <v>0.0001949342699431725</v>
+        <v>0.01895594202983874</v>
       </c>
     </row>
   </sheetData>
